--- a/Data_proglio/Patient11_P/Patient11_ClinicGoals.xlsx
+++ b/Data_proglio/Patient11_P/Patient11_ClinicGoals.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreaswetzel/Documents/Master_Medisin/Masteroppgave/Master/Master-Thesis/Data_proglio/Patient11_P/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67C0273-7CC4-3341-A04F-E035D6B29C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21760" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Criteria</t>
   </si>
@@ -173,13 +179,31 @@
   </si>
   <si>
     <t>AtMost 25.0 Gy to 0.03 cc [Gy]</t>
+  </si>
+  <si>
+    <t>BrainstemCore</t>
+  </si>
+  <si>
+    <t>At most 54 Gy (RBE) dose at 0.00% volume</t>
+  </si>
+  <si>
+    <t>BrainstemSurface</t>
+  </si>
+  <si>
+    <t>At most 60 Gy</t>
+  </si>
+  <si>
+    <t>Brain-GTV</t>
+  </si>
+  <si>
+    <t>AtMost 50.0 % volume at 30 Gy (RBE) dose</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,7 +228,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -227,21 +251,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -288,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,9 +367,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,6 +419,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -529,14 +612,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -555,7 +643,7 @@
         <v>27.55</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +654,7 @@
         <v>53.23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -577,7 +665,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -588,7 +676,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,7 +687,7 @@
         <v>8.31</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -610,7 +698,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -621,7 +709,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -632,7 +720,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -643,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -654,7 +742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -665,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -676,7 +764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -687,7 +775,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -698,7 +786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +797,7 @@
         <v>52.94</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -720,7 +808,7 @@
         <v>54.01</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -731,7 +819,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -742,7 +830,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -753,7 +841,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
@@ -764,7 +852,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -775,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -786,7 +874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -797,7 +885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -808,7 +896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -819,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -830,7 +918,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
@@ -841,7 +929,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
@@ -852,7 +940,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -863,7 +951,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
@@ -874,7 +962,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -885,7 +973,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
@@ -896,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
@@ -907,7 +995,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
@@ -918,7 +1006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -927,6 +1015,39 @@
       </c>
       <c r="C36">
         <v>0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37">
+        <v>57.78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>64.69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.26169999999999999</v>
       </c>
     </row>
   </sheetData>
